--- a/ExtraClase/Entregable 1.xlsx
+++ b/ExtraClase/Entregable 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arias Ramirez\OneDrive\Escritorio\U\2024-2\IS2\ExtraClase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/sergio_arias8941_uco_net_co/Documents/Desktop/Universidad/uco-2024-2/IS2/IS2/ExtraClase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29808416-C180-434C-9A78-2278CAE93C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{29808416-C180-434C-9A78-2278CAE93C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC60D8BE-BF9F-4D9B-B208-F671927C1982}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11040" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla de Contenido" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="449">
   <si>
     <t>Trade off de QA</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Usuario final</t>
   </si>
   <si>
-    <t>UCOBet</t>
-  </si>
-  <si>
     <t>Ambiente real de operación con carga normal</t>
   </si>
   <si>
@@ -261,27 +258,15 @@
     <t>La aplicación debe permitir la auditoría de la creación y modificación de usuarios y grupos dentro del sistema.</t>
   </si>
   <si>
-    <t>Envío de un mensaje</t>
-  </si>
-  <si>
     <t>Sistema</t>
   </si>
   <si>
     <t>Ambiente real de operación</t>
   </si>
   <si>
-    <t>Se ha comprobado que el mensaje está cifrado antes de ser enviado.</t>
-  </si>
-  <si>
-    <t>Si se intenta descifrar un mensaje sin la clave correcta, el sistema debe impedir el acceso al contenido.</t>
-  </si>
-  <si>
     <t>Usuario malicioso</t>
   </si>
   <si>
-    <t>Intento de descifrado sin la clave correcta</t>
-  </si>
-  <si>
     <t>Ambiente controlado de pruebas</t>
   </si>
   <si>
@@ -294,9 +279,6 @@
     <t>Cuando se recibe un mensaje cifrado, debe ser descifrado solo si la clave correcta está disponible en el dispositivo extraíble.</t>
   </si>
   <si>
-    <t>Recepción de un mensaje cifrado</t>
-  </si>
-  <si>
     <t>El mensaje es descifrado solo si la clave correcta está disponible, asegurando su autenticidad</t>
   </si>
   <si>
@@ -327,9 +309,6 @@
     <t>El mensaje cumple con los estándares establecidos, garantizando su seguridad a largo plazo</t>
   </si>
   <si>
-    <t>Se ha validado que el cifrado sigue las directrices de seguridad definidas.</t>
-  </si>
-  <si>
     <t>Cuando se requiere descifrar un mensaje, el sistema debe solicitar la conexión del dispositivo USB con la clave criptográfica.</t>
   </si>
   <si>
@@ -351,9 +330,6 @@
     <t>Todas las operaciones criptográficas en curso son canceladas, protegiendo la confidencialidad de los datos</t>
   </si>
   <si>
-    <t>Se ha comprobado que las operaciones criptográficas se detienen al remover el USB.</t>
-  </si>
-  <si>
     <t>Cuando un dispositivo USB con la clave criptográfica es conectado, el sistema debe autenticar el dispositivo antes de permitir su uso.</t>
   </si>
   <si>
@@ -363,9 +339,6 @@
     <t>El sistema autentica el dispositivo antes de permitir cualquier operación con la clave</t>
   </si>
   <si>
-    <t>Se ha comprobado que el dispositivo USB es autenticado antes de su uso.</t>
-  </si>
-  <si>
     <t>Si se intenta conectar un dispositivo USB no autorizado, el sistema debe rechazar su uso e informar al usuario.</t>
   </si>
   <si>
@@ -375,9 +348,6 @@
     <t>El sistema rechaza el uso del dispositivo no autorizado y notifica al usuario</t>
   </si>
   <si>
-    <t>Se ha comprobado que el dispositivo USB no autorizado es bloqueado.</t>
-  </si>
-  <si>
     <t>Cuando se realiza un respaldo de las claves en el dispositivo USB, el sistema debe cifrar el respaldo usando una contraseña segura proporcionada por el usuario.</t>
   </si>
   <si>
@@ -396,9 +366,6 @@
     <t>Medida de la Respuesta</t>
   </si>
   <si>
-    <t>Durante un período de 30 días, la disponibilidad del sistema debe ser igual o superior al 95%.</t>
-  </si>
-  <si>
     <t>Monitoreo de disponibilidad</t>
   </si>
   <si>
@@ -408,9 +375,6 @@
     <t>El sistema mantiene una disponibilidad del 95% o superior durante el período evaluado.</t>
   </si>
   <si>
-    <t>La disponibilidad promedio del sistema es al menos del 95% durante el período de evaluación.</t>
-  </si>
-  <si>
     <t>El sistema debe reportar cualquier caída en la disponibilidad que reduzca el tiempo operativo por debajo del 95%.</t>
   </si>
   <si>
@@ -423,12 +387,6 @@
     <t>El sistema genera una alerta o informe cuando la disponibilidad cae por debajo del 95%.</t>
   </si>
   <si>
-    <t>El informe de disponibilidad muestra una caída y la notificación es enviada según el umbral establecido.</t>
-  </si>
-  <si>
-    <t>Se debe revisar mensualmente el informe de disponibilidad para asegurar que el sistema cumple con el 95% de disponibilidad.</t>
-  </si>
-  <si>
     <t>Informes de disponibilidad</t>
   </si>
   <si>
@@ -438,9 +396,6 @@
     <t>El informe mensual muestra que la disponibilidad del sistema cumple o supera el 95%.</t>
   </si>
   <si>
-    <t>El informe de disponibilidad mensual confirma que el sistema ha alcanzado al menos el 95% de disponibilidad.</t>
-  </si>
-  <si>
     <t>En caso de fallo en un componente crítico, el sistema debe seguir funcionando sin afectar la disponibilidad total.</t>
   </si>
   <si>
@@ -456,9 +411,6 @@
     <t>El sistema sigue operativo y no se ve afectado en su totalidad.</t>
   </si>
   <si>
-    <t>El sistema mantiene la funcionalidad completa y la disponibilidad no se ve comprometida tras el fallo del componente.</t>
-  </si>
-  <si>
     <t>Durante una prueba de resistencia, el sistema debe mostrar que las fallas parciales no impactan la disponibilidad general.</t>
   </si>
   <si>
@@ -471,9 +423,6 @@
     <t>El sistema demuestra que puede manejar fallos parciales sin afectar la disponibilidad general.</t>
   </si>
   <si>
-    <t>El sistema maneja fallos parciales sin impactar la disponibilidad general durante las pruebas.</t>
-  </si>
-  <si>
     <t>El sistema debe ser evaluado para asegurar que el diseño tolera fallos y proporciona alta disponibilidad durante situaciones de falla.</t>
   </si>
   <si>
@@ -489,9 +438,6 @@
     <t>El diseño del sistema muestra que está preparado para manejar fallos y mantener la disponibilidad.</t>
   </si>
   <si>
-    <t>El diseño cumple con los requisitos de tolerancia a fallos y mantiene la disponibilidad.</t>
-  </si>
-  <si>
     <t>La aplicación debe instalarse y ejecutarse correctamente en Windows, macOS y Linux.</t>
   </si>
   <si>
@@ -606,15 +552,9 @@
     <t>Tiempo de encriptación para cada solicitud medida individualmente.</t>
   </si>
   <si>
-    <t>Al realizar la encriptación de archivos grandes (por ejemplo, de 1 GB), el sistema debe completar la operación en menos de 30 segundos.</t>
-  </si>
-  <si>
     <t>Ejecutar encriptación de archivos grandes</t>
   </si>
   <si>
-    <t>La encriptación de archivos de 1 GB se completa en menos de 30 segundos.</t>
-  </si>
-  <si>
     <t>Cuando el sistema realice una operación de desencriptación, debe completarla en menos de 30 segundos.</t>
   </si>
   <si>
@@ -639,15 +579,9 @@
     <t>Tiempo de desencriptación para cada solicitud medida individualmente.</t>
   </si>
   <si>
-    <t>Al realizar la desencriptación de archivos grandes (por ejemplo, de 1 GB), el sistema debe completar la operación en menos de 30 segundos.</t>
-  </si>
-  <si>
     <t>Ejecutar desencriptación de archivos grandes</t>
   </si>
   <si>
-    <t>La desencriptación de archivos de 1 GB se completa en menos de 30 segundos.</t>
-  </si>
-  <si>
     <t>Cuando se realice cualquier acción o evento importante en el sistema, se debe generar un registro detallado de la actividad.</t>
   </si>
   <si>
@@ -657,9 +591,6 @@
     <t>Un registro detallado es generado y almacenado correctamente.</t>
   </si>
   <si>
-    <t>Existencia y detalle del registro de actividad.</t>
-  </si>
-  <si>
     <t>Los registros de actividad deben ser accesibles para su revisión por personal autorizado sin necesidad de intervenciones adicionales.</t>
   </si>
   <si>
@@ -672,21 +603,6 @@
     <t>Los registros son accesibles y legibles sin problemas para personal autorizado.</t>
   </si>
   <si>
-    <t>Tiempo de acceso y calidad de la información disponible.</t>
-  </si>
-  <si>
-    <t>Los registros de actividad deben ser generados en tiempo real, sin retrasos significativos desde el evento que se registra.</t>
-  </si>
-  <si>
-    <t>Realizar una acción significativa</t>
-  </si>
-  <si>
-    <t>El registro es creado en tiempo real, inmediatamente después del evento.</t>
-  </si>
-  <si>
-    <t>Tiempo transcurrido desde el evento hasta la creación del registro.</t>
-  </si>
-  <si>
     <t>El acceso a los registros de auditoría debe estar restringido a personal autorizado únicamente.</t>
   </si>
   <si>
@@ -696,9 +612,6 @@
     <t>El sistema restringe el acceso a personas no autorizadas.</t>
   </si>
   <si>
-    <t>Restricción de acceso y respuesta ante intentos no autorizados.</t>
-  </si>
-  <si>
     <t>Los registros de auditoría deben ser accesibles únicamente a través de credenciales de acceso específicas para personal autorizado.</t>
   </si>
   <si>
@@ -708,9 +621,6 @@
     <t>El acceso a los registros es permitido solo con credenciales autorizadas.</t>
   </si>
   <si>
-    <t>Correcta autenticación y autorización para el acceso a registros.</t>
-  </si>
-  <si>
     <t>Los registros de auditoría deben ser protegidos contra modificaciones no autorizadas.</t>
   </si>
   <si>
@@ -718,9 +628,6 @@
   </si>
   <si>
     <t>Los registros no se pueden modificar sin autorización adecuada.</t>
-  </si>
-  <si>
-    <t>Integridad y protección de los registros de auditoría.</t>
   </si>
   <si>
     <t xml:space="preserve">Escenarios de calidad </t>
@@ -1249,21 +1156,6 @@
   </si>
   <si>
     <r>
-      <t>El sistema debe incluir medios alternativos para continuar operando</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> en caso de problemas, como el envío de mensajes por correo electrónico.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Deben implementarse herramientas de monitoreo continuo</t>
     </r>
     <r>
@@ -1599,12 +1491,6 @@
     <t>La aplicación debe permitir una instalación personalizada donde el usuario pueda elegir componentes específicos o configuraciones según sus necesidades.</t>
   </si>
   <si>
-    <t>El sistema debe ser capaz de ejecutar la encriptación en menos de 30 segundos.</t>
-  </si>
-  <si>
-    <t>El sistema debe realizar la desencriptación en menos de 30 segundos.</t>
-  </si>
-  <si>
     <t>Se deben utilizar algoritmos de compresión optimizados para reducir el tamaño de los datos almacenados y transmitidos, mejorando así la eficiencia y el rendimiento general del sistema.</t>
   </si>
   <si>
@@ -1696,9 +1582,6 @@
   </si>
   <si>
     <t xml:space="preserve">Una vez una conversacion sea creada el usuario que creo el grupo sera el que define que usuario realizara el proceso de descarga de los diarios </t>
-  </si>
-  <si>
-    <t>La aplicación debe generar registros detallados de actividad que incluyan todas las acciones y eventos significativos para facilitar la auditoría.</t>
   </si>
   <si>
     <t>El acceso a los registros de auditoría debe estar restringido a personal autorizado para prevenir accesos no autorizados o manipulaciones.</t>
@@ -2426,6 +2309,99 @@
   </si>
   <si>
     <t>Aplicar prácticas de código limpio mejora la comprensión y legibilidad, reduciendo errores al utilizar nombres descriptivos y evitar código desordenado.</t>
+  </si>
+  <si>
+    <r>
+      <t>El sistema debe incluir medios alternativos para continuar operando</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en caso de problemas.</t>
+    </r>
+  </si>
+  <si>
+    <t>EMNA</t>
+  </si>
+  <si>
+    <t>Se logra identificar que al comparar el mensaje antes y posterior a al proceso se debe notar la diferencia</t>
+  </si>
+  <si>
+    <t>Durante un período de 1 año, la disponibilidad del sistema debe ser igual o superior al 95%.</t>
+  </si>
+  <si>
+    <t>Se debe revisar anualmente el informe de disponibilidad para asegurar que el sistema cumple con el 95% de disponibilidad.</t>
+  </si>
+  <si>
+    <t>El sistema debe ser capaz de ejecutar la encriptación en menos de 30 segundos en archivos no superiores a 1 GB .</t>
+  </si>
+  <si>
+    <t>El sistema debe realizar la desencriptación en menos de 30 segundos en archivos no superiores a 1 GB.</t>
+  </si>
+  <si>
+    <t>Al realizar la desencriptación de archivos grandes (por ejemplo, de 1 GB), el sistema debe completar la operación en un tiempo optimo pero puede ser superior a los 30 segundos.</t>
+  </si>
+  <si>
+    <t>Al realizar la encriptación de archivos grandes (por ejemplo, de 1 GB), el sistema debe completar la operación en un tiempo optimo pero puede ser superior a los 30 segundos.</t>
+  </si>
+  <si>
+    <t>La encriptación de archivos de 1 GB se completa en un tiempo apopiado pero que puede superar los 30 segundos.</t>
+  </si>
+  <si>
+    <t>La desencriptación de archivos de 1 GB se completa en un tiempo apopiado pero que puede superar los 30 segundos.</t>
+  </si>
+  <si>
+    <t>La aplicación debe generar registros detallados de actividad que incluyan todas las acciones que sean consideradas criticas y eventos significativos para facilitar la auditoría.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota: Posible mente entra el resiliencia al fallo </t>
+  </si>
+  <si>
+    <t>Si ejecuta el descifrar un mensaje sin la clave correcta, el sistema debe impedir el acceso al contenido.</t>
+  </si>
+  <si>
+    <t>No se puede encontrar el dispositivo que contiene el diario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se pudo validad que el dispositivo cuenta con el diario vinculado con la conversacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se pudo validad que el dispositivo cuenta con el diario vinculado con la conversacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe consultar el registro de la accion de registro de auditoria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultar y validar que el usuario tenga el rol autorisado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se debe de validar el rol del usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se debe de validar los datos de usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar el estado del sistema </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar el historico de disponibilidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendimiento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encriptar un mensaje previo a su envío de forma exitosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud de descifrado de forma no exitosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitud de descifrado de forma  exitosa </t>
   </si>
 </sst>
 </file>
@@ -2523,7 +2499,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2621,6 +2597,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2762,7 +2762,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2776,9 +2776,6 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2794,12 +2791,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2807,9 +2798,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2823,24 +2811,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2860,12 +2830,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2878,9 +2842,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2892,6 +2853,37 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2926,30 +2918,6 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2983,37 +2951,55 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="18" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="19" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="20" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
@@ -3024,185 +3010,6 @@
   <dxfs count="140">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3383,37 +3190,7 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -3594,6 +3371,155 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -4253,7 +4179,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -4289,217 +4215,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -4708,6 +4423,277 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -5208,7 +5194,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5313,10 +5299,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12</c:v>
@@ -5452,10 +5438,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -5591,10 +5577,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12</c:v>
@@ -5687,7 +5673,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361250320"/>
@@ -5746,7 +5732,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="361256080"/>
@@ -5788,7 +5774,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5825,7 +5811,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6423,8 +6409,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1788D096-E498-4E44-8A15-D33479892DA9}" name="Tabla3" displayName="Tabla3" ref="A7:I10" totalsRowShown="0" headerRowDxfId="139" dataDxfId="137" headerRowBorderDxfId="138" tableBorderDxfId="136" totalsRowBorderDxfId="135">
-  <autoFilter ref="A7:I10" xr:uid="{1788D096-E498-4E44-8A15-D33479892DA9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1788D096-E498-4E44-8A15-D33479892DA9}" name="Tabla3" displayName="Tabla3" ref="A7:I9" totalsRowShown="0" headerRowDxfId="139" dataDxfId="137" headerRowBorderDxfId="138" tableBorderDxfId="136" totalsRowBorderDxfId="135">
+  <autoFilter ref="A7:I9" xr:uid="{1788D096-E498-4E44-8A15-D33479892DA9}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{96C3F5CC-E859-4C74-B45A-A2F62666093E}" name="Número" dataDxfId="134"/>
     <tableColumn id="2" xr3:uid="{8C8E2A76-F9A4-439B-BCB1-1706EC1813CE}" name="Descripción" dataDxfId="133"/>
@@ -6441,18 +6427,18 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A0DAC60D-0430-48AE-B285-E89093330F75}" name="Tabla11" displayName="Tabla11" ref="A7:I12" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A0DAC60D-0430-48AE-B285-E89093330F75}" name="Tabla11" displayName="Tabla11" ref="A7:I12" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A7:I12" xr:uid="{A0DAC60D-0430-48AE-B285-E89093330F75}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DED50041-CF24-4ECF-9EE2-5C52EF4FD9CD}" name="Número" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{EC52D308-16EE-4008-859A-4B22C9874B10}" name="Descripción" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{1359B8C1-E434-45C2-9A27-5540925604BB}" name="Fuente del estímulo" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{C579E2FA-9E13-4184-976D-A5AABF4D3739}" name="Estímulo" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E4AE2E75-5556-4CD6-A6AC-4113F8D7431D}" name="Artefacto" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6223F0F8-4BD8-4090-AA37-D5DA2786C58F}" name="Ambiente" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{92E4B8F8-009E-4EF4-BA28-7BE908E9B568}" name="Respuesta" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{9F234C28-9E82-4ADB-ABE0-C3EA9BB65A21}" name="Medida de la respuesta" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{B335C1B1-C20C-488A-A832-8F42D03CF925}" name="Estado" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{DED50041-CF24-4ECF-9EE2-5C52EF4FD9CD}" name="Número" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{EC52D308-16EE-4008-859A-4B22C9874B10}" name="Descripción" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{1359B8C1-E434-45C2-9A27-5540925604BB}" name="Fuente del estímulo" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{C579E2FA-9E13-4184-976D-A5AABF4D3739}" name="Estímulo" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{E4AE2E75-5556-4CD6-A6AC-4113F8D7431D}" name="Artefacto" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{6223F0F8-4BD8-4090-AA37-D5DA2786C58F}" name="Ambiente" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{92E4B8F8-009E-4EF4-BA28-7BE908E9B568}" name="Respuesta" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{9F234C28-9E82-4ADB-ABE0-C3EA9BB65A21}" name="Medida de la respuesta" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{B335C1B1-C20C-488A-A832-8F42D03CF925}" name="Estado" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6477,126 +6463,126 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4D5E9A4A-DB0D-4A3E-80B6-A7C5C7EE95DA}" name="Tabla5" displayName="Tabla5" ref="A7:I10" totalsRowShown="0" headerRowDxfId="111" dataDxfId="109" headerRowBorderDxfId="110" tableBorderDxfId="108" totalsRowBorderDxfId="107">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4D5E9A4A-DB0D-4A3E-80B6-A7C5C7EE95DA}" name="Tabla5" displayName="Tabla5" ref="A7:I10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="111" tableBorderDxfId="110" totalsRowBorderDxfId="109">
   <autoFilter ref="A7:I10" xr:uid="{4D5E9A4A-DB0D-4A3E-80B6-A7C5C7EE95DA}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AA165854-4B6E-44E3-BB59-EBEE7C59B89E}" name="Número" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{6BBF460F-CACF-4B13-8990-B3E1883F3886}" name="Descripción" dataDxfId="105"/>
-    <tableColumn id="3" xr3:uid="{44407D36-C325-49D9-AB88-50894A0A8464}" name="Fuente del estímulo" dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{716F0FA7-234B-4383-92E0-D1AEA6CE3B91}" name="Estímulo" dataDxfId="103"/>
-    <tableColumn id="5" xr3:uid="{BA357186-A806-4ADA-877B-BD3A670F93EB}" name="Artefacto" dataDxfId="102"/>
-    <tableColumn id="6" xr3:uid="{92C6DB34-3C87-4C98-99D7-551261FE4B28}" name="Ambiente" dataDxfId="101"/>
-    <tableColumn id="7" xr3:uid="{B76DD3D3-AD4F-410D-8ABB-A223AC45A6B7}" name="Respuesta" dataDxfId="100"/>
-    <tableColumn id="8" xr3:uid="{32625007-F62C-479D-92A8-94A36848E73A}" name="Medida de la respuesta" dataDxfId="99"/>
-    <tableColumn id="9" xr3:uid="{DEC09DE7-02D1-4D40-809E-9EE66556036E}" name="Estado" dataDxfId="98"/>
+    <tableColumn id="1" xr3:uid="{AA165854-4B6E-44E3-BB59-EBEE7C59B89E}" name="Número" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{6BBF460F-CACF-4B13-8990-B3E1883F3886}" name="Descripción" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{44407D36-C325-49D9-AB88-50894A0A8464}" name="Fuente del estímulo" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{716F0FA7-234B-4383-92E0-D1AEA6CE3B91}" name="Estímulo" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{BA357186-A806-4ADA-877B-BD3A670F93EB}" name="Artefacto" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{92C6DB34-3C87-4C98-99D7-551261FE4B28}" name="Ambiente" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{B76DD3D3-AD4F-410D-8ABB-A223AC45A6B7}" name="Respuesta" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{32625007-F62C-479D-92A8-94A36848E73A}" name="Medida de la respuesta" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{DEC09DE7-02D1-4D40-809E-9EE66556036E}" name="Estado" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FD4110C2-F304-4599-B3E2-8F38A8691C72}" name="Tabla4" displayName="Tabla4" ref="A7:I10" totalsRowShown="0" headerRowDxfId="97" dataDxfId="95" headerRowBorderDxfId="96" tableBorderDxfId="94" totalsRowBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FD4110C2-F304-4599-B3E2-8F38A8691C72}" name="Tabla4" displayName="Tabla4" ref="A7:I10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <autoFilter ref="A7:I10" xr:uid="{FD4110C2-F304-4599-B3E2-8F38A8691C72}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{36FA7176-8DDB-4D85-AE64-E6C5170F7D83}" name="Número" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{8834A6E8-573A-47F2-A3FE-23E91F2D6836}" name="Descripción" dataDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{8B7A2951-7384-4824-990A-D5D73995746B}" name="Fuente del estímulo" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{95FF5415-84A1-4310-83B7-2FCDE85D783D}" name="Estímulo" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{E05C2C76-E6B1-4D4C-ADF9-BF94944F302B}" name="Artefacto" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{AA6ED53E-FDDB-4B2B-B962-6BB3608DD278}" name="Ambiente" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{7A3FC220-C6DD-403D-9C80-C973D1B52B44}" name="Respuesta" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{12D4BDE7-66E4-4CA9-A211-EE26BB665EF4}" name="Medida de la respuesta" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{5EC1B76D-2A3C-4D29-B896-7B443966919B}" name="Estado" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{36FA7176-8DDB-4D85-AE64-E6C5170F7D83}" name="Número" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{8834A6E8-573A-47F2-A3FE-23E91F2D6836}" name="Descripción" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{8B7A2951-7384-4824-990A-D5D73995746B}" name="Fuente del estímulo" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{95FF5415-84A1-4310-83B7-2FCDE85D783D}" name="Estímulo" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{E05C2C76-E6B1-4D4C-ADF9-BF94944F302B}" name="Artefacto" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{AA6ED53E-FDDB-4B2B-B962-6BB3608DD278}" name="Ambiente" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{7A3FC220-C6DD-403D-9C80-C973D1B52B44}" name="Respuesta" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{12D4BDE7-66E4-4CA9-A211-EE26BB665EF4}" name="Medida de la respuesta" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{5EC1B76D-2A3C-4D29-B896-7B443966919B}" name="Estado" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FC2285FC-A3A8-4DAA-92D8-90FB1A4C6825}" name="Tabla7" displayName="Tabla7" ref="A7:I10" totalsRowShown="0" headerRowDxfId="83" dataDxfId="81" headerRowBorderDxfId="82" tableBorderDxfId="80" totalsRowBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FC2285FC-A3A8-4DAA-92D8-90FB1A4C6825}" name="Tabla7" displayName="Tabla7" ref="A7:I10" totalsRowShown="0" headerRowDxfId="105" dataDxfId="103" headerRowBorderDxfId="104" tableBorderDxfId="102" totalsRowBorderDxfId="101">
   <autoFilter ref="A7:I10" xr:uid="{FC2285FC-A3A8-4DAA-92D8-90FB1A4C6825}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{254A7DD6-0910-4F86-A83C-9B04320E030C}" name="Número" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{94BC81E9-D89C-49D9-BB30-C63F6FB144BB}" name="Descripción" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{6EB5899F-429B-49F2-951D-ADF7CBE968B7}" name="Fuente del Estímulo" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{72E34A5E-0DB6-462E-8373-FB135A09B919}" name="Estímulo" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{581AC9FB-B793-4065-A738-38DEBB0B3781}" name="Artefacto" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{C058CE89-984A-4AE7-81E7-EA1CDBFBB8C1}" name="Ambiente" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{318DD402-2809-4342-AFDD-667BB63E7D54}" name="Respuesta" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{4CA03027-DFF2-4051-B5F9-F15B164B8B9D}" name="Medida de la Respuesta" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{0D398F17-E035-4F24-9737-AF4E1E07E5D3}" name="Estado" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{254A7DD6-0910-4F86-A83C-9B04320E030C}" name="Número" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{94BC81E9-D89C-49D9-BB30-C63F6FB144BB}" name="Descripción" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{6EB5899F-429B-49F2-951D-ADF7CBE968B7}" name="Fuente del Estímulo" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{72E34A5E-0DB6-462E-8373-FB135A09B919}" name="Estímulo" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{581AC9FB-B793-4065-A738-38DEBB0B3781}" name="Artefacto" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{C058CE89-984A-4AE7-81E7-EA1CDBFBB8C1}" name="Ambiente" dataDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{318DD402-2809-4342-AFDD-667BB63E7D54}" name="Respuesta" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{4CA03027-DFF2-4051-B5F9-F15B164B8B9D}" name="Medida de la Respuesta" dataDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{0D398F17-E035-4F24-9737-AF4E1E07E5D3}" name="Estado" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7CCFEC43-CF5F-4482-B542-E19CC15A7A3D}" name="Tabla6" displayName="Tabla6" ref="A7:I10" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66" totalsRowBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7CCFEC43-CF5F-4482-B542-E19CC15A7A3D}" name="Tabla6" displayName="Tabla6" ref="A7:I10" totalsRowShown="0" headerRowDxfId="91" dataDxfId="89" headerRowBorderDxfId="90" tableBorderDxfId="88" totalsRowBorderDxfId="87">
   <autoFilter ref="A7:I10" xr:uid="{7CCFEC43-CF5F-4482-B542-E19CC15A7A3D}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1AD1B49E-6E8F-4882-ABFB-5FFE7432806D}" name="Número" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{16957780-45BC-4238-BCCB-4A7099768CDE}" name="Descripción" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{8BBC5A05-2672-4164-AB95-474CA035F175}" name="Fuente del Estímulo" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{87086D07-D907-4A02-9A7C-AE15CB6DB5FA}" name="Estímulo" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{3D5FD30D-E777-4796-83CB-64882FEDA037}" name="Artefacto" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{6BA84606-CB03-42CD-A744-FACD70823038}" name="Ambiente" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{BF98D258-2063-4FF7-8417-B9BD5BA94209}" name="Respuesta" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{946729FF-75F2-4BE6-9A04-4AF3F37EF0DC}" name="Medida de la Respuesta" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{924BC9B3-6D34-4645-8B1D-B4E034C96128}" name="Estado" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{1AD1B49E-6E8F-4882-ABFB-5FFE7432806D}" name="Número" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{16957780-45BC-4238-BCCB-4A7099768CDE}" name="Descripción" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{8BBC5A05-2672-4164-AB95-474CA035F175}" name="Fuente del Estímulo" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{87086D07-D907-4A02-9A7C-AE15CB6DB5FA}" name="Estímulo" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{3D5FD30D-E777-4796-83CB-64882FEDA037}" name="Artefacto" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{6BA84606-CB03-42CD-A744-FACD70823038}" name="Ambiente" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{BF98D258-2063-4FF7-8417-B9BD5BA94209}" name="Respuesta" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{946729FF-75F2-4BE6-9A04-4AF3F37EF0DC}" name="Medida de la Respuesta" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{924BC9B3-6D34-4645-8B1D-B4E034C96128}" name="Estado" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D0E67746-94F7-43FF-94C5-FD752B9DCBE0}" name="Tabla9" displayName="Tabla9" ref="A7:I10" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{D0E67746-94F7-43FF-94C5-FD752B9DCBE0}" name="Tabla9" displayName="Tabla9" ref="A7:I10" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="73">
   <autoFilter ref="A7:I10" xr:uid="{D0E67746-94F7-43FF-94C5-FD752B9DCBE0}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1D0DFB64-C8F2-43A1-BC57-B4FA0A3A67A5}" name="Número" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{C60238F9-A140-4B3D-AFCF-5F3F55745D77}" name="Descripción" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{DA61B289-5F65-4A63-AE6B-9B9C8BC4C5D5}" name="Fuente del Estímulo" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{1318DF64-965D-45FF-82A2-995A330A2C6E}" name="Estímulo" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{3350FAA5-5B2F-4656-9C7C-630ABBDEBB7C}" name="Artefacto" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{EBEB5D8D-2704-4ACF-93AF-DA467FC0E097}" name="Ambiente" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{54AB823F-3196-4214-98F4-9F74A3F281D5}" name="Respuesta" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{B6071E83-5488-451F-82F3-040FEC897D9B}" name="Medida de la Respuesta" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{BEE4A882-E336-45FE-8DD7-3882213CAEE6}" name="Estado" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{1D0DFB64-C8F2-43A1-BC57-B4FA0A3A67A5}" name="Número" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{C60238F9-A140-4B3D-AFCF-5F3F55745D77}" name="Descripción" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{DA61B289-5F65-4A63-AE6B-9B9C8BC4C5D5}" name="Fuente del Estímulo" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{1318DF64-965D-45FF-82A2-995A330A2C6E}" name="Estímulo" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{3350FAA5-5B2F-4656-9C7C-630ABBDEBB7C}" name="Artefacto" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{EBEB5D8D-2704-4ACF-93AF-DA467FC0E097}" name="Ambiente" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{54AB823F-3196-4214-98F4-9F74A3F281D5}" name="Respuesta" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{B6071E83-5488-451F-82F3-040FEC897D9B}" name="Medida de la Respuesta" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{BEE4A882-E336-45FE-8DD7-3882213CAEE6}" name="Estado" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FD105646-DE94-4BCD-9D32-F5D2F2CD1804}" name="Tabla8" displayName="Tabla8" ref="A7:I10" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FD105646-DE94-4BCD-9D32-F5D2F2CD1804}" name="Tabla8" displayName="Tabla8" ref="A7:I10" totalsRowShown="0" headerRowDxfId="63" dataDxfId="61" headerRowBorderDxfId="62" tableBorderDxfId="60" totalsRowBorderDxfId="59">
   <autoFilter ref="A7:I10" xr:uid="{FD105646-DE94-4BCD-9D32-F5D2F2CD1804}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F8E74986-4D9A-40EE-B132-756CA48E9BA8}" name="Número" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{A7EA2EC5-7050-4574-8E0B-B2336E42D086}" name="Descripción" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{3C13C3E1-CC99-49AC-8ACD-AFC471504B58}" name="Fuente del Estímulo" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{8ED8501F-DF7B-428F-AFC3-89281974CE9E}" name="Estímulo" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{F7979D77-EF88-4895-9229-C01552BD545D}" name="Artefacto" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{7E3B6349-03D0-47AD-A10F-B9247DE90C70}" name="Ambiente" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{7AE586CE-1FF1-4333-8182-C69755289199}" name="Respuesta" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{7DBC0AD8-20DE-4974-8466-B4403F7437E3}" name="Medida de la Respuesta" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{8785AEA3-4330-495C-AABC-6725FB4E49F0}" name="Estado" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{F8E74986-4D9A-40EE-B132-756CA48E9BA8}" name="Número" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{A7EA2EC5-7050-4574-8E0B-B2336E42D086}" name="Descripción" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{3C13C3E1-CC99-49AC-8ACD-AFC471504B58}" name="Fuente del Estímulo" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{8ED8501F-DF7B-428F-AFC3-89281974CE9E}" name="Estímulo" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{F7979D77-EF88-4895-9229-C01552BD545D}" name="Artefacto" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{7E3B6349-03D0-47AD-A10F-B9247DE90C70}" name="Ambiente" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{7AE586CE-1FF1-4333-8182-C69755289199}" name="Respuesta" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{7DBC0AD8-20DE-4974-8466-B4403F7437E3}" name="Medida de la Respuesta" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{8785AEA3-4330-495C-AABC-6725FB4E49F0}" name="Estado" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CDB9F837-C30A-4905-930A-9B6B957DD1F9}" name="Tabla10" displayName="Tabla10" ref="A7:I12" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CDB9F837-C30A-4905-930A-9B6B957DD1F9}" name="Tabla10" displayName="Tabla10" ref="A7:I12" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
   <autoFilter ref="A7:I12" xr:uid="{CDB9F837-C30A-4905-930A-9B6B957DD1F9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{58EC31D5-ABA7-4691-9CE9-2D646A59435B}" name="Número" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{3CC0C371-2809-49AE-9AD0-717653D562B2}" name="Descripción" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{B447105C-0F82-42A8-8BE1-3C028D92B778}" name="Fuente del estímulo" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{1A502254-3DDE-4383-9E15-8F9ABF69D833}" name="Estímulo" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{153FC430-2F9E-4A80-A928-CACFA1547957}" name="Artefacto" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{466B4FE7-6C23-4C8B-BA69-D4671B77084E}" name="Ambiente" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{EF18D027-2093-461D-B82E-65B5A5203D9C}" name="Respuesta" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{868FDE05-111B-429F-978A-DE51A2C228E2}" name="Medida de la respuesta" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{BE9F518D-4B89-469C-AC81-C2A5C1665418}" name="Estado" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{58EC31D5-ABA7-4691-9CE9-2D646A59435B}" name="Número" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{3CC0C371-2809-49AE-9AD0-717653D562B2}" name="Descripción" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{B447105C-0F82-42A8-8BE1-3C028D92B778}" name="Fuente del estímulo" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{1A502254-3DDE-4383-9E15-8F9ABF69D833}" name="Estímulo" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{153FC430-2F9E-4A80-A928-CACFA1547957}" name="Artefacto" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{466B4FE7-6C23-4C8B-BA69-D4671B77084E}" name="Ambiente" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{EF18D027-2093-461D-B82E-65B5A5203D9C}" name="Respuesta" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{868FDE05-111B-429F-978A-DE51A2C228E2}" name="Medida de la respuesta" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{BE9F518D-4B89-469C-AC81-C2A5C1665418}" name="Estado" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6867,111 +6853,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="171.28515625" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="42.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="171.28515625" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="83" t="s">
-        <v>419</v>
-      </c>
-      <c r="F1" s="12"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
-        <v>420</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>412</v>
-      </c>
-      <c r="F2" s="12"/>
+      <c r="A2" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
-        <v>421</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>416</v>
-      </c>
-      <c r="F3" s="12"/>
+      <c r="A3" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>422</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>428</v>
-      </c>
-      <c r="F4" s="12"/>
+      <c r="A4" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
-        <v>413</v>
-      </c>
-      <c r="B5" s="82"/>
+      <c r="A5" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="39"/>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
-        <v>414</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>415</v>
+      <c r="A6" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
-        <v>417</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>418</v>
+      <c r="A7" s="40" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
-        <v>364</v>
+      <c r="A10" s="37" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
-        <v>387</v>
+      <c r="A11" s="38" t="s">
+        <v>352</v>
       </c>
       <c r="B11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
-        <v>388</v>
+      <c r="A12" s="38" t="s">
+        <v>353</v>
       </c>
       <c r="B12"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
-        <v>389</v>
+      <c r="A13" s="38" t="s">
+        <v>354</v>
       </c>
       <c r="B13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>175</v>
+      <c r="A14" s="15" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="38" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="38" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="38" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6997,201 +6985,201 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="28.140625" style="43"/>
+    <col min="1" max="16384" width="28.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>62</v>
+      <c r="A1" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="B2" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="B3" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>375</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="B4" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>376</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="A6" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>51</v>
+      <c r="D8" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>51</v>
+      <c r="D9" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>51</v>
+      <c r="D10" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7221,201 +7209,201 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="18.85546875" style="43"/>
+    <col min="1" max="16384" width="18.85546875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>62</v>
+      <c r="A1" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="B3" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>377</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="B4" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>378</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="A6" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>51</v>
+      <c r="D8" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>51</v>
+      <c r="D9" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>51</v>
+      <c r="D10" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7445,201 +7433,201 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="27.28515625" style="13"/>
+    <col min="1" max="16384" width="27.28515625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>62</v>
+      <c r="A1" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+      <c r="B3" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>371</v>
-      </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="B4" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="69" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="71"/>
+      <c r="B5" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="A6" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>3</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="14" t="s">
+      <c r="E10" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
-        <v>1</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
-        <v>2</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
-        <v>3</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>51</v>
+      <c r="H10" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7669,201 +7657,201 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="25.85546875" style="43"/>
+    <col min="1" max="16384" width="25.85546875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>62</v>
+      <c r="A1" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="B3" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="B4" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="A6" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7" s="14" t="s">
+      <c r="H7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>51</v>
+      <c r="B8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>51</v>
+      <c r="B9" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>51</v>
+      <c r="B10" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -7893,268 +7881,268 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="13"/>
-    <col min="5" max="5" width="13.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="13"/>
-    <col min="9" max="9" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="28.28515625" style="13"/>
+    <col min="1" max="1" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="12"/>
+    <col min="5" max="5" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="12"/>
+    <col min="9" max="9" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="28.28515625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>62</v>
+      <c r="A1" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
+      <c r="B3" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="69" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
+      <c r="B4" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="A5" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="A6" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E10" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="D11" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
-        <v>2</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="G11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>5</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="20" t="s">
+      <c r="D12" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
-        <v>3</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="E12" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="H12" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
-        <v>4</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
-        <v>5</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>51</v>
+      <c r="I12" s="28" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -8184,259 +8172,259 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="28.140625" style="43"/>
+    <col min="1" max="16384" width="28.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>62</v>
+      <c r="A1" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="77"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="51" t="s">
+      <c r="I8" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
-        <v>1</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="F9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D10" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="G10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
-        <v>2</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
-        <v>3</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="G11" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="H11" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="20" t="s">
+      <c r="I11" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>5</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="C12" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
-        <v>4</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="E12" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="G12" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
-        <v>5</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>51</v>
+      <c r="H12" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -8471,7 +8459,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8517,21 +8505,21 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E15" si="0">SUM(B4:D4)</f>
-        <v>23</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F15" si="1">E4/$E$16</f>
-        <v>8.4249084249084255E-2</v>
+        <f>SUM(B4:D4)</f>
+        <v>22</v>
+      </c>
+      <c r="F4" s="86">
+        <f>E4/$E$16</f>
+        <v>8.0586080586080591E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8539,21 +8527,21 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" si="1"/>
-        <v>8.0586080586080591E-2</v>
+        <f>SUM(B5:D5)</f>
+        <v>23</v>
+      </c>
+      <c r="F5" s="8">
+        <f>E5/$E$16</f>
+        <v>8.4249084249084255E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8570,11 +8558,11 @@
         <v>12</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E6:E15" si="0">SUM(B6:D6)</f>
         <v>34</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F4:F15" si="1">E6/$E$16</f>
         <v>0.12454212454212454</v>
       </c>
     </row>
@@ -8778,7 +8766,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2">
         <f>SUM(B3:B15)</f>
@@ -8830,7 +8818,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -9133,63 +9121,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>63</v>
+      <c r="A1" s="30" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
-        <v>406</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>407</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>392</v>
+      <c r="A2" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>409</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>433</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>434</v>
+      <c r="A3" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>409</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>435</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>436</v>
+      <c r="A4" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
-        <v>410</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>429</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>430</v>
+      <c r="A5" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
-        <v>410</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>431</v>
-      </c>
-      <c r="C6" s="85" t="s">
-        <v>432</v>
+      <c r="A6" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9229,96 +9217,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>63</v>
+      <c r="A1" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="46" t="s">
+        <v>409</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="B2" s="88" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
-        <v>437</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" s="90" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
-        <v>439</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
-        <v>440</v>
-      </c>
-      <c r="B6" s="90" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
-        <v>441</v>
-      </c>
-      <c r="B7" s="90" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="89" t="s">
-        <v>442</v>
-      </c>
-      <c r="B8" s="90" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
-        <v>443</v>
-      </c>
-      <c r="B9" s="90" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
-        <v>444</v>
-      </c>
-      <c r="B10" s="90" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
-        <v>445</v>
-      </c>
-      <c r="B11" s="90" t="s">
-        <v>446</v>
-      </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
-        <v>447</v>
-      </c>
-      <c r="B12" s="90" t="s">
-        <v>456</v>
+      <c r="A12" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -9342,71 +9330,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>63</v>
+      <c r="A1" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
-        <v>390</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>391</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>392</v>
+      <c r="A2" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
-        <v>402</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>393</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>394</v>
+      <c r="A3" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>359</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>403</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>395</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>396</v>
+      <c r="A4" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>361</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
-        <v>404</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>398</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>399</v>
+      <c r="A5" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>364</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
-        <v>405</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>400</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>401</v>
+      <c r="A6" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>366</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -9423,1890 +9411,1894 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4C73B9-0AF9-4DE7-8A91-18F0737D3184}">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66" style="13" customWidth="1"/>
-    <col min="3" max="3" width="32" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="13"/>
+    <col min="1" max="1" width="26" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66" style="12" customWidth="1"/>
+    <col min="3" max="3" width="32" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>63</v>
+      <c r="A1" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="70" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="72"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="72"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="72"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" s="72"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="72"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="72"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="72"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="72"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="72"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="72"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="72"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="72"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="72"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="72"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="72"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="72"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="72"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>229</v>
+      </c>
+      <c r="C35" s="72"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="C36" s="72"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="73" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="72"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" s="74"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="77"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="77"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="C44" s="77"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="77"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="77"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" s="77"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" s="77"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="77"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" s="77"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="77"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="77"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="C53" s="77"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="13"/>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" s="77"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="13"/>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="77"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="77"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57" s="77"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+    </row>
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="77"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+    </row>
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="77"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+    </row>
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="77"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" s="77"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+    </row>
+    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" s="77"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+    </row>
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="77"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+    </row>
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" s="77"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="77"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+    </row>
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="77"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" s="77"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+    </row>
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="C68" s="77"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" s="77"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+    </row>
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+    </row>
+    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="C71" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+    </row>
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" s="39"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+    </row>
+    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" s="39"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+    </row>
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" s="39"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+    </row>
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="78" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" s="39"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+    </row>
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="39"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="39"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="39"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="39"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="78" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" s="39"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="C81" s="39"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="78" t="s">
+        <v>269</v>
+      </c>
+      <c r="C82" s="39"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="C83" s="39"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+    </row>
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="C84" s="39"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+    </row>
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="39"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+    </row>
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="78" t="s">
+        <v>275</v>
+      </c>
+      <c r="C86" s="39"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+    </row>
+    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" s="39"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+    </row>
+    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="39"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+    </row>
+    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="78" t="s">
+        <v>278</v>
+      </c>
+      <c r="C89" s="39"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+    </row>
+    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" s="39"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+    </row>
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="78" t="s">
+        <v>280</v>
+      </c>
+      <c r="C91" s="39"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+    </row>
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="78" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" s="39"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+    </row>
+    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="C93" s="39"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B94" s="80" t="s">
         <v>427</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="14"/>
-    </row>
-    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="14"/>
-    </row>
-    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="14"/>
-    </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="14"/>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="14"/>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="14"/>
-    </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="14"/>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="14"/>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-    </row>
-    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-    </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-    </row>
-    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-    </row>
-    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-    </row>
-    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-    </row>
-    <row r="62" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="17" t="s">
+      <c r="C94" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D94" s="14"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B95" s="80" t="s">
+        <v>428</v>
+      </c>
+      <c r="C95" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="14"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+    </row>
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B96" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-    </row>
-    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="17" t="s">
+      <c r="C96" s="82"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B97" s="80" t="s">
         <v>284</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-    </row>
-    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="17" t="s">
+      <c r="C97" s="82"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B98" s="80" t="s">
         <v>285</v>
       </c>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-    </row>
-    <row r="65" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="17" t="s">
+      <c r="C98" s="82"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+    </row>
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B99" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-    </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="17" t="s">
+      <c r="C99" s="82"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B100" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-    </row>
-    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="17" t="s">
+      <c r="C100" s="82"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B101" s="80" t="s">
         <v>288</v>
       </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-    </row>
-    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="17" t="s">
+      <c r="C101" s="82"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B102" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="82"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B103" s="80" t="s">
         <v>289</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-    </row>
-    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="17" t="s">
+      <c r="C103" s="82"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B104" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" s="82"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B105" s="80" t="s">
         <v>290</v>
       </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-    </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="17" t="s">
+      <c r="C105" s="82"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B106" s="80" t="s">
         <v>291</v>
       </c>
-      <c r="C70" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" s="19"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-    </row>
-    <row r="71" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="17" t="s">
+      <c r="C106" s="82"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B107" s="80" t="s">
         <v>292</v>
       </c>
-      <c r="C71" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-    </row>
-    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="17" t="s">
+      <c r="C107" s="82"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+    </row>
+    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B108" s="80" t="s">
         <v>293</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-    </row>
-    <row r="73" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="17" t="s">
+      <c r="C108" s="82"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+    </row>
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B109" s="80" t="s">
         <v>294</v>
       </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-    </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="17" t="s">
+      <c r="C109" s="82"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B110" s="80" t="s">
         <v>295</v>
       </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-    </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="17" t="s">
+      <c r="C110" s="82"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+    </row>
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B111" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="C111" s="82"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B112" s="80" t="s">
+        <v>297</v>
+      </c>
+      <c r="C112" s="82"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+    </row>
+    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B113" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="C113" s="82"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+    </row>
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B114" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="C114" s="82"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+    </row>
+    <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B115" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="82"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+    </row>
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B116" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="C116" s="82"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="16"/>
+    </row>
+    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B117" s="80" t="s">
+        <v>308</v>
+      </c>
+      <c r="C117" s="82"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+    </row>
+    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B118" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="C118" s="82"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="16"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B119" s="80" t="s">
+        <v>303</v>
+      </c>
+      <c r="C119" s="82"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+    </row>
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B120" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-    </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-    </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-    </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-    </row>
-    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-    </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-    </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-    </row>
-    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-    </row>
-    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" s="17" t="s">
+      <c r="C120" s="82"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+    </row>
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B121" s="80" t="s">
         <v>305</v>
       </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-    </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="17" t="s">
+      <c r="C121" s="82"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+    </row>
+    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B122" s="80" t="s">
         <v>306</v>
       </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-    </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" s="17" t="s">
+      <c r="C122" s="82"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+    </row>
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B123" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-    </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-    </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" s="17" t="s">
+      <c r="C123" s="82"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="16"/>
+    </row>
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="B124" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-    </row>
-    <row r="89" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-    </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-    </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-    </row>
-    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-    </row>
-    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="17" t="s">
+      <c r="C124" s="82"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="16"/>
+    </row>
+    <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="83" t="s">
+        <v>433</v>
+      </c>
+      <c r="C125" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D125" s="16"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="16"/>
+    </row>
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="83" t="s">
         <v>314</v>
       </c>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-    </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="17" t="s">
+      <c r="C126" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="16"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+    </row>
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="C94" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="17" t="s">
+      <c r="C127" s="83"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+    </row>
+    <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A128" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="83" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D95" s="15"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-    </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" s="17" t="s">
+      <c r="C128" s="83"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+    </row>
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C129" s="83"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+    </row>
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" s="83"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+    </row>
+    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="83" t="s">
         <v>317</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-    </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" s="17" t="s">
+      <c r="C131" s="83"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+    </row>
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="83" t="s">
         <v>318</v>
       </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-    </row>
-    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" s="17" t="s">
+      <c r="C132" s="83"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+    </row>
+    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="83" t="s">
         <v>319</v>
       </c>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-    </row>
-    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" s="17" t="s">
+      <c r="C133" s="83"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="17"/>
+    </row>
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="83" t="s">
         <v>320</v>
       </c>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B100" s="17" t="s">
+      <c r="C134" s="83"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+    </row>
+    <row r="135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="83" t="s">
         <v>321</v>
       </c>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="17" t="s">
+      <c r="C135" s="83"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="17"/>
+    </row>
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="83"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+    </row>
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="83" t="s">
         <v>322</v>
       </c>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" s="17" t="s">
+      <c r="C137" s="83"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="17"/>
+    </row>
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="83"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+    </row>
+    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="83"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="17"/>
+    </row>
+    <row r="140" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140" s="83"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="17"/>
+    </row>
+    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="83" t="s">
+        <v>323</v>
+      </c>
+      <c r="C141" s="83"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+    </row>
+    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="C142" s="83"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="17"/>
+    </row>
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="83" t="s">
+        <v>325</v>
+      </c>
+      <c r="C143" s="83"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+    </row>
+    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-    </row>
-    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="20"/>
-    </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-    </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" s="17" t="s">
+      <c r="C144" s="83"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="17"/>
+    </row>
+    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="83" t="s">
         <v>326</v>
       </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="20"/>
-    </row>
-    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" s="17" t="s">
+      <c r="C145" s="83"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="17"/>
+    </row>
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="83" t="s">
         <v>327</v>
       </c>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-    </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" s="17" t="s">
+      <c r="C146" s="83"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="17"/>
+    </row>
+    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B147" s="83" t="s">
         <v>328</v>
       </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="20"/>
-      <c r="F109" s="20"/>
-    </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="C110" s="20"/>
-      <c r="D110" s="20"/>
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-    </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B111" s="17" t="s">
+      <c r="C147" s="83"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+    </row>
+    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B148" s="83" t="s">
         <v>330</v>
       </c>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-    </row>
-    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" s="17" t="s">
+      <c r="C148" s="83"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+    </row>
+    <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B149" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="C112" s="20"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
-    </row>
-    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B113" s="17" t="s">
+      <c r="C149" s="83"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
+      <c r="F149" s="17"/>
+    </row>
+    <row r="150" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
-    </row>
-    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" s="17" t="s">
+      <c r="C150" s="83"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="17"/>
+    </row>
+    <row r="151" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20"/>
-    </row>
-    <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B115" s="17" t="s">
+      <c r="C151" s="83"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="17"/>
+    </row>
+    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-    </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" s="17" t="s">
+      <c r="C152" s="83"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="17"/>
+    </row>
+    <row r="153" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="19"/>
-    </row>
-    <row r="117" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-    </row>
-    <row r="118" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="19"/>
-    </row>
-    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="C119" s="20"/>
-      <c r="D119" s="20"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
-    </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
-    </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A121" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-    </row>
-    <row r="122" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
-    </row>
-    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="19"/>
-    </row>
-    <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A124" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="C124" s="20"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="19"/>
-    </row>
-    <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="26" t="s">
+      <c r="C153" s="83"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="17"/>
+    </row>
+    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B125" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D125" s="19"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="19"/>
-    </row>
-    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D126" s="19"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-    </row>
-    <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="C127" s="20"/>
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="20"/>
-    </row>
-    <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C128" s="20"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20"/>
-    </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B129" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C129" s="20"/>
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
-    </row>
-    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C130" s="20"/>
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20"/>
-    </row>
-    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B131" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-    </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-    </row>
-    <row r="133" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B133" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="20"/>
-    </row>
-    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B134" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="20"/>
-    </row>
-    <row r="135" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C135" s="20"/>
-      <c r="D135" s="20"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="20"/>
-    </row>
-    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-    </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-    </row>
-    <row r="138" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="20"/>
-    </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B139" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C139" s="20"/>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
-    </row>
-    <row r="140" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="20"/>
-    </row>
-    <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B141" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-    </row>
-    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="C142" s="20"/>
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20"/>
-    </row>
-    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B143" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20"/>
-    </row>
-    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B144" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C144" s="20"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="20"/>
-    </row>
-    <row r="145" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="C145" s="20"/>
-      <c r="D145" s="20"/>
-      <c r="E145" s="20"/>
-      <c r="F145" s="20"/>
-    </row>
-    <row r="146" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A146" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="C146" s="20"/>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
-    </row>
-    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20"/>
-    </row>
-    <row r="148" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="C148" s="20"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="20"/>
-    </row>
-    <row r="149" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A149" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B149" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="C149" s="20"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="20"/>
-    </row>
-    <row r="150" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B150" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="C150" s="20"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
-    </row>
-    <row r="151" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B151" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C151" s="20"/>
-      <c r="D151" s="20"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="20"/>
-    </row>
-    <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="C152" s="20"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
-    </row>
-    <row r="153" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A153" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-    </row>
-    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B154" s="20" t="s">
+      <c r="B154" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C154" s="20"/>
-      <c r="D154" s="20"/>
-      <c r="E154" s="20"/>
-      <c r="F154" s="20"/>
+      <c r="C154" s="83"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11329,207 +11321,178 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A4312C-FDD2-4340-821F-754A5F40D4E6}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="27.28515625" style="43"/>
+    <col min="1" max="16384" width="27.28515625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>62</v>
+      <c r="A1" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>348</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="A6" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="17">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="I8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="17">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="B9" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
-        <v>3</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -11559,202 +11522,202 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="27.5703125" style="43"/>
+    <col min="1" max="16384" width="27.5703125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>62</v>
+      <c r="A1" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="B3" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>385</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
+      <c r="B4" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>386</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="Q5" s="46"/>
+      <c r="B5" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
+      <c r="Q5" s="33"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
+      <c r="A6" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="36" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="B8" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="9" spans="1:17" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="B9" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="10" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="37" t="s">
+      <c r="B10" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -11778,208 +11741,213 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482B083A-8F1B-4380-B3DA-4DA002A053C1}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="29.140625" style="43"/>
+    <col min="1" max="1" width="29.140625" style="31"/>
+    <col min="2" max="2" width="40" style="31" customWidth="1"/>
+    <col min="3" max="16384" width="29.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>62</v>
+      <c r="A1" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="B2" s="53" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="60"/>
+      <c r="B3" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
+      <c r="B4" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="51" t="s">
-        <v>380</v>
-      </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="B5" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="A6" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="D9" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="37" t="s">
+      <c r="B10" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="37" t="s">
+      <c r="D10" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>51</v>
-      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12002,208 +11970,211 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA19D2B3-3E99-4B9E-BAE1-41A4FFCD985E}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="19.85546875" style="40"/>
+    <col min="1" max="16384" width="19.85546875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>62</v>
+      <c r="A1" s="30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
+      <c r="B2" s="53" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
+      <c r="B3" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>381</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
+      <c r="B4" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
+      <c r="B5" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="A6" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="9" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+      <c r="A9" s="24">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="11" t="s">
+      <c r="D9" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
+    </row>
+    <row r="10" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="31" t="s">
+      <c r="D10" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>51</v>
-      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
